--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AA44F3-EBBE-A649-9C48-BC5B7AA64203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C89770-AC92-804C-B1CA-AD216D52A80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2422,6 +2422,10 @@
   </si>
   <si>
     <t>test!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4814,10 +4818,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -5087,7 +5091,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5097,8 +5101,11 @@
       <c r="G17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="14">
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5106,7 +5113,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5114,7 +5121,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5122,7 +5129,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="14">
+    <row r="21" spans="1:8" ht="14">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5130,7 +5137,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5138,7 +5145,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5146,7 +5153,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5154,7 +5161,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5162,7 +5169,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5170,7 +5177,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5178,7 +5185,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5186,7 +5193,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5194,7 +5201,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5202,7 +5209,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5210,7 +5217,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C89770-AC92-804C-B1CA-AD216D52A80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFAED87-39BC-6B40-A15E-A797C95D3106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4818,10 +4818,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -5091,7 +5091,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5101,19 +5101,19 @@
       <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14">
+    </row>
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="9"/>
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5121,7 +5121,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5129,7 +5129,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="14">
+    <row r="21" spans="1:7" ht="14">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5137,7 +5137,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:7">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5145,7 +5145,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:7">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5153,7 +5153,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5161,7 +5161,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:7">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5169,7 +5169,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5177,7 +5177,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5185,7 +5185,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5193,7 +5193,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:7">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5201,7 +5201,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5209,7 +5209,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5217,7 +5217,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>

--- a/5조_PSP.xlsx
+++ b/5조_PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFAED87-39BC-6B40-A15E-A797C95D3106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F26FD53-C905-B543-B96F-64FDDAC70FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2426,6 +2426,10 @@
   </si>
   <si>
     <t>성공!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째도 성공!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4821,13 +4825,14 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5120,6 +5125,9 @@
       <c r="D19" s="9"/>
       <c r="E19" s="17"/>
       <c r="F19" s="4"/>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="14"/>
